--- a/BDatos.xlsx
+++ b/BDatos.xlsx
@@ -7,16 +7,15 @@
     <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>BASE DE DATOS</t>
   </si>
@@ -149,13 +148,82 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>UsuId Identificador</t>
+  </si>
+  <si>
+    <t>UsuRol Rol Administrador/Usuario/Root</t>
+  </si>
+  <si>
+    <t>UsuNom Nombre</t>
+  </si>
+  <si>
+    <t>UsuPwd Password</t>
+  </si>
+  <si>
+    <t>UsuEma E-mail</t>
+  </si>
+  <si>
+    <t>UsuSorId Identificador/es Sorteos</t>
+  </si>
+  <si>
+    <t>UsuDesId Identificador/es Deseos</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>Jose Ignacio</t>
+  </si>
+  <si>
+    <t>SuperAdmin</t>
+  </si>
+  <si>
+    <t>nakocho@hotmail.com</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>Admin@admin.com</t>
+  </si>
+  <si>
+    <t>Usu</t>
+  </si>
+  <si>
+    <t>Usu2</t>
+  </si>
+  <si>
+    <t>Usu2@Usu2.com</t>
+  </si>
+  <si>
+    <t>Usu3</t>
+  </si>
+  <si>
+    <t>Usu3@Usu3.com</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>Usu4</t>
+  </si>
+  <si>
+    <t>Usu4@Usu4.com</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +283,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -224,7 +299,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -524,11 +599,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -539,6 +668,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,89 +758,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -923,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F26"/>
+  <dimension ref="B1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -934,304 +1076,452 @@
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="3" spans="2:6" ht="27" customHeight="1">
-      <c r="B3" s="28" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
+    <row r="2" spans="2:6" ht="23.25">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28"/>
+    </row>
+    <row r="3" spans="2:6" ht="23.25">
+      <c r="B3" s="17" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="29" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="29"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="2:6" ht="27" customHeight="1">
-      <c r="B4" s="31" t="s">
+    <row r="4" spans="2:6" ht="24" thickBot="1">
+      <c r="B4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="2:6" ht="15.75" thickBot="1">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="2:6" ht="32.25" thickBot="1">
+      <c r="B6" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" spans="2:6" ht="21.75" thickBot="1">
+      <c r="B7" s="10"/>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="21">
+      <c r="B8" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" spans="2:6" ht="21">
+      <c r="B9" s="37"/>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="21">
+      <c r="B10" s="39"/>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="21"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
+    </row>
+    <row r="13" spans="2:6" ht="21">
+      <c r="B13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="2:6" ht="21">
+      <c r="B14" s="37"/>
+      <c r="C14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="42">
+      <c r="B15" s="37"/>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" s="12"/>
+    </row>
+    <row r="16" spans="2:6" ht="21">
+      <c r="B16" s="39"/>
+      <c r="C16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="24"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="26"/>
+    </row>
+    <row r="19" spans="2:8" ht="21">
+      <c r="B19" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="2:8" ht="42">
+      <c r="B20" s="37"/>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="2:8" ht="21">
+      <c r="B21" s="37"/>
+      <c r="C21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="21">
+      <c r="B22" s="37"/>
+      <c r="C22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="2:8" ht="21">
+      <c r="B23" s="37"/>
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="42">
+      <c r="B24" s="37"/>
+      <c r="C24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="2:8" ht="42.75" thickBot="1">
+      <c r="B25" s="38"/>
+      <c r="C25" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="15"/>
+    </row>
+    <row r="28" spans="2:8" ht="60">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="30">
+      <c r="B29" s="20">
+        <v>0</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="30">
+      <c r="B30" s="20">
+        <v>1</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="20">
+        <v>1</v>
+      </c>
+      <c r="H30" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="20">
         <v>2</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C31" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31" s="20">
+        <v>1.2</v>
+      </c>
+      <c r="H31" s="20">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="20">
         <v>3</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="32"/>
-    </row>
-    <row r="5" spans="2:6" ht="27" customHeight="1" thickBot="1">
-      <c r="B5" s="33" t="s">
+      <c r="C32" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="G32" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="20">
         <v>4</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" thickBot="1"/>
-    <row r="7" spans="2:6" ht="28.5" customHeight="1" thickBot="1">
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-    </row>
-    <row r="8" spans="2:6" ht="24" customHeight="1" thickBot="1">
-      <c r="B8" s="14"/>
-      <c r="C8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="24" customHeight="1">
-      <c r="B9" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="2:6" ht="24" customHeight="1">
-      <c r="B10" s="15"/>
-      <c r="C10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="24" customHeight="1">
-      <c r="B11" s="15"/>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="2:6">
-      <c r="B12" s="18"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="2:6">
-      <c r="B13" s="20"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="2:6" ht="21">
-      <c r="B14" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="2:6" ht="21">
-      <c r="B15" s="15"/>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="42">
-      <c r="B16" s="15"/>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="2:6" ht="21">
-      <c r="B17" s="15"/>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="18"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="2:6" ht="21">
-      <c r="B20" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="2:6" ht="42">
-      <c r="B21" s="15"/>
-      <c r="C21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="2:6" ht="21">
-      <c r="B22" s="15"/>
-      <c r="C22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F22" s="17">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="21">
-      <c r="B23" s="15"/>
-      <c r="C23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="2:6" ht="21">
-      <c r="B24" s="15"/>
-      <c r="C24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="17">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" ht="42">
-      <c r="B25" s="15"/>
-      <c r="C25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="2:6" ht="42.75" thickBot="1">
-      <c r="B26" s="23"/>
-      <c r="C26" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="26"/>
+      <c r="C33" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="20" t="s">
+        <v>66</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="B17:F18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B12:F13"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:F19"/>
-    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:F12"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C28" r:id="rId1" location="usesubform[3]=1" display="https://databases-auth.000webhost.com/sql.php?db=id3972968_amigoinvisible&amp;token=5e18c1b2c5c531588b125ada228bb83e&amp;goto=db_structure.php&amp;table=USUARIOS&amp;pos=0 - usesubform[3]=1"/>
+    <hyperlink ref="D28" r:id="rId2" location="usesubform[4]=1" display="https://databases-auth.000webhost.com/sql.php?db=id3972968_amigoinvisible&amp;token=5e18c1b2c5c531588b125ada228bb83e&amp;goto=db_structure.php&amp;table=USUARIOS&amp;pos=0 - usesubform[4]=1"/>
+    <hyperlink ref="E28" r:id="rId3" location="usesubform[5]=1" display="https://databases-auth.000webhost.com/sql.php?db=id3972968_amigoinvisible&amp;token=5e18c1b2c5c531588b125ada228bb83e&amp;goto=db_structure.php&amp;table=USUARIOS&amp;pos=0 - usesubform[5]=1"/>
+    <hyperlink ref="F28" r:id="rId4" location="usesubform[6]=1" display="https://databases-auth.000webhost.com/sql.php?db=id3972968_amigoinvisible&amp;token=5e18c1b2c5c531588b125ada228bb83e&amp;goto=db_structure.php&amp;table=USUARIOS&amp;pos=0 - usesubform[6]=1"/>
+    <hyperlink ref="G28" r:id="rId5" location="usesubform[7]=1" display="https://databases-auth.000webhost.com/sql.php?db=id3972968_amigoinvisible&amp;token=5e18c1b2c5c531588b125ada228bb83e&amp;goto=db_structure.php&amp;table=USUARIOS&amp;pos=0 - usesubform[7]=1"/>
+    <hyperlink ref="H28" r:id="rId6" location="usesubform[8]=1" display="https://databases-auth.000webhost.com/sql.php?db=id3972968_amigoinvisible&amp;token=5e18c1b2c5c531588b125ada228bb83e&amp;goto=db_structure.php&amp;table=USUARIOS&amp;pos=0 - usesubform[8]=1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1246,17 +1536,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>
--- a/BDatos.xlsx
+++ b/BDatos.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>BASE DE DATOS</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>UsuAdminSorId</t>
+  </si>
+  <si>
+    <t>Admin de los sorteos con Id</t>
   </si>
 </sst>
 </file>
@@ -299,7 +305,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -647,6 +653,32 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -657,7 +689,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -696,12 +728,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
@@ -713,6 +739,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,6 +766,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -758,17 +796,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1065,16 +1116,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H33"/>
+  <dimension ref="B1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="26.42578125" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
@@ -1082,46 +1133,46 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:6" ht="23.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="2:6" ht="23.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="2:6" ht="24" thickBot="1">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
     </row>
     <row r="5" spans="2:6" ht="15.75" thickBot="1">
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="2:6" ht="32.25" thickBot="1">
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37"/>
     </row>
     <row r="7" spans="2:6" ht="21.75" thickBot="1">
       <c r="B7" s="10"/>
@@ -1139,7 +1190,7 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="21">
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1154,7 +1205,7 @@
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="2:6" ht="21">
-      <c r="B9" s="37"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1169,7 +1220,7 @@
       </c>
     </row>
     <row r="10" spans="2:6" ht="21">
-      <c r="B10" s="39"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1182,21 +1233,21 @@
       <c r="F10" s="12"/>
     </row>
     <row r="11" spans="2:6">
-      <c r="B11" s="21"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="23"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="24"/>
     </row>
     <row r="12" spans="2:6">
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="2:6" ht="21">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="19" t="s">
         <v>21</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1211,7 +1262,7 @@
       <c r="F13" s="12"/>
     </row>
     <row r="14" spans="2:6" ht="21">
-      <c r="B14" s="37"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1226,7 +1277,7 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="42">
-      <c r="B15" s="37"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1239,7 +1290,7 @@
       <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6" ht="21">
-      <c r="B16" s="39"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1252,21 +1303,21 @@
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:8">
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="24"/>
     </row>
     <row r="18" spans="2:8">
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="26"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="2:8" ht="21">
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="19" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1280,49 +1331,49 @@
       </c>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="2:8" ht="42">
-      <c r="B20" s="37"/>
+    <row r="20" spans="2:8" ht="21">
+      <c r="B20" s="20"/>
       <c r="C20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="21">
+      <c r="B21" s="20"/>
+      <c r="C21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="2:8" ht="42">
+      <c r="B22" s="20"/>
+      <c r="C22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="2:8" ht="21">
-      <c r="B21" s="37"/>
-      <c r="C21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="21">
-      <c r="B22" s="37"/>
-      <c r="C22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F22" s="12"/>
     </row>
     <row r="23" spans="2:8" ht="21">
-      <c r="B23" s="37"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
@@ -1337,7 +1388,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" ht="42">
-      <c r="B24" s="37"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="2" t="s">
         <v>33</v>
       </c>
@@ -1349,154 +1400,174 @@
       </c>
       <c r="F24" s="12"/>
     </row>
-    <row r="25" spans="2:8" ht="42.75" thickBot="1">
-      <c r="B25" s="38"/>
-      <c r="C25" s="13" t="s">
+    <row r="25" spans="2:8" ht="42">
+      <c r="B25" s="20"/>
+      <c r="C25" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="28" spans="2:8" ht="60">
-      <c r="B28" t="s">
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="2:8" ht="42" customHeight="1" thickBot="1">
+      <c r="B26" s="28"/>
+      <c r="C26" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="44"/>
+    </row>
+    <row r="27" spans="2:8" ht="33.75">
+      <c r="B27" s="38"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="39"/>
+    </row>
+    <row r="30" spans="2:8" ht="60">
+      <c r="B30" t="s">
         <v>44</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C30" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D30" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="19" t="s">
+      <c r="E30" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F30" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G30" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H30" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="30">
-      <c r="B29" s="20">
+    <row r="31" spans="2:8" ht="30">
+      <c r="B31" s="18">
         <v>0</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C31" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D31" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E31" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F31" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="20" t="s">
+      <c r="G31" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="H29" s="20" t="s">
+      <c r="H31" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="30">
-      <c r="B30" s="20">
+    <row r="32" spans="2:8" ht="30">
+      <c r="B32" s="18">
         <v>1</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C32" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D32" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E32" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F32" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G32" s="18">
         <v>1</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H32" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:8">
-      <c r="B31" s="20">
+    <row r="33" spans="2:8">
+      <c r="B33" s="18">
         <v>2</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C33" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D33" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E33" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F33" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G33" s="18">
         <v>1.2</v>
       </c>
-      <c r="H31" s="20">
+      <c r="H33" s="18">
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="2:8">
-      <c r="B32" s="20">
+    <row r="34" spans="2:8">
+      <c r="B34" s="18">
         <v>3</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C34" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D34" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E34" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F34" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="20" t="s">
+      <c r="G34" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="H32" s="20" t="s">
+      <c r="H34" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="2:8">
-      <c r="B33" s="20">
+    <row r="35" spans="2:8">
+      <c r="B35" s="18">
         <v>4</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C35" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D35" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E35" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F35" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="G33" s="20" t="s">
+      <c r="G35" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H33" s="20" t="s">
+      <c r="H35" s="18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1504,7 +1575,7 @@
   <mergeCells count="9">
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="B17:F18"/>
-    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B19:B26"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
@@ -1513,12 +1584,12 @@
     <mergeCell ref="B11:F12"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C28" r:id="rId1" location="usesubform[3]=1" display="https://databases-auth.000webhost.com/sql.php?db=id3972968_amigoinvisible&amp;token=5e18c1b2c5c531588b125ada228bb83e&amp;goto=db_structure.php&amp;table=USUARIOS&amp;pos=0 - usesubform[3]=1"/>
-    <hyperlink ref="D28" r:id="rId2" location="usesubform[4]=1" display="https://databases-auth.000webhost.com/sql.php?db=id3972968_amigoinvisible&amp;token=5e18c1b2c5c531588b125ada228bb83e&amp;goto=db_structure.php&amp;table=USUARIOS&amp;pos=0 - usesubform[4]=1"/>
-    <hyperlink ref="E28" r:id="rId3" location="usesubform[5]=1" display="https://databases-auth.000webhost.com/sql.php?db=id3972968_amigoinvisible&amp;token=5e18c1b2c5c531588b125ada228bb83e&amp;goto=db_structure.php&amp;table=USUARIOS&amp;pos=0 - usesubform[5]=1"/>
-    <hyperlink ref="F28" r:id="rId4" location="usesubform[6]=1" display="https://databases-auth.000webhost.com/sql.php?db=id3972968_amigoinvisible&amp;token=5e18c1b2c5c531588b125ada228bb83e&amp;goto=db_structure.php&amp;table=USUARIOS&amp;pos=0 - usesubform[6]=1"/>
-    <hyperlink ref="G28" r:id="rId5" location="usesubform[7]=1" display="https://databases-auth.000webhost.com/sql.php?db=id3972968_amigoinvisible&amp;token=5e18c1b2c5c531588b125ada228bb83e&amp;goto=db_structure.php&amp;table=USUARIOS&amp;pos=0 - usesubform[7]=1"/>
-    <hyperlink ref="H28" r:id="rId6" location="usesubform[8]=1" display="https://databases-auth.000webhost.com/sql.php?db=id3972968_amigoinvisible&amp;token=5e18c1b2c5c531588b125ada228bb83e&amp;goto=db_structure.php&amp;table=USUARIOS&amp;pos=0 - usesubform[8]=1"/>
+    <hyperlink ref="C30" r:id="rId1" location="usesubform[3]=1" display="https://databases-auth.000webhost.com/sql.php?db=id3972968_amigoinvisible&amp;token=5e18c1b2c5c531588b125ada228bb83e&amp;goto=db_structure.php&amp;table=USUARIOS&amp;pos=0 - usesubform[3]=1"/>
+    <hyperlink ref="D30" r:id="rId2" location="usesubform[4]=1" display="https://databases-auth.000webhost.com/sql.php?db=id3972968_amigoinvisible&amp;token=5e18c1b2c5c531588b125ada228bb83e&amp;goto=db_structure.php&amp;table=USUARIOS&amp;pos=0 - usesubform[4]=1"/>
+    <hyperlink ref="E30" r:id="rId3" location="usesubform[5]=1" display="https://databases-auth.000webhost.com/sql.php?db=id3972968_amigoinvisible&amp;token=5e18c1b2c5c531588b125ada228bb83e&amp;goto=db_structure.php&amp;table=USUARIOS&amp;pos=0 - usesubform[5]=1"/>
+    <hyperlink ref="F30" r:id="rId4" location="usesubform[6]=1" display="https://databases-auth.000webhost.com/sql.php?db=id3972968_amigoinvisible&amp;token=5e18c1b2c5c531588b125ada228bb83e&amp;goto=db_structure.php&amp;table=USUARIOS&amp;pos=0 - usesubform[6]=1"/>
+    <hyperlink ref="G30" r:id="rId5" location="usesubform[7]=1" display="https://databases-auth.000webhost.com/sql.php?db=id3972968_amigoinvisible&amp;token=5e18c1b2c5c531588b125ada228bb83e&amp;goto=db_structure.php&amp;table=USUARIOS&amp;pos=0 - usesubform[7]=1"/>
+    <hyperlink ref="H30" r:id="rId6" location="usesubform[8]=1" display="https://databases-auth.000webhost.com/sql.php?db=id3972968_amigoinvisible&amp;token=5e18c1b2c5c531588b125ada228bb83e&amp;goto=db_structure.php&amp;table=USUARIOS&amp;pos=0 - usesubform[8]=1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId7"/>
